--- a/biology/Mycologie/Lewis_David_von_Schweinitz/Lewis_David_von_Schweinitz.xlsx
+++ b/biology/Mycologie/Lewis_David_von_Schweinitz/Lewis_David_von_Schweinitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lewis (ou Ludwig) David von Schweinitz est un homme d’église, un botaniste et un mycologue américain, né le 13 février 1780 à Bethlehem (Pennsylvanie) et mort le 8 février 1834 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du baron Hans Christian Alexander von Schweinitz et d’Anna Dorothea Elizabeth de Watteville von Schweinitz. Sa mère est la petite-fille du comte Nikolaus Ludwig von Zinzendorf (1700-1760), fondateur de l’église morave. Entre 7 et 18 ans, il suit les cours de Samuel G. Kramsch à l’école morave de Nazareth (Pennsylvanie) où il commence à s’intéresser à la botanique. Il suit ses parents en Allemagne et entre au Séminaire théologique morave de Niesky (Silésie) en 1798. Il suit les cours du théologie et botaniste Johannes Baptista von Albertini (1769-1831) qui lui fait découvrir la mycologie.
 Après son diplôme en 1801, il enseigne et prêche dans différentes écoles moraves en Allemagne. De 1801 à  1807, il enseigne à l’Académie morave de Niesky, de 1807 à 1808, à Gnadenberg et de 1808 à 1812 à Gnadau.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.
 </t>
